--- a/Studio2015/data.xlsx
+++ b/Studio2015/data.xlsx
@@ -21,6 +21,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>num1</t>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +71,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -345,44 +365,58 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1">
-        <v>5</v>
-      </c>
-      <c r="D1">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>20</v>
       </c>
     </row>
